--- a/output/MOMENTUM/rebalance/rebalance_20240131.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240131.xlsx
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03181308406365392</v>
+        <v>0.03181280626286835</v>
       </c>
       <c r="C3" t="n">
         <v>0.02164673203788178</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01016635202577214</v>
+        <v>-0.01016607422498657</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02659160483911148</v>
+        <v>0.02659154926877294</v>
       </c>
       <c r="C9" t="n">
         <v>0.02117979478706464</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005411810052046835</v>
+        <v>-0.005411754481708303</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02345919509695081</v>
+        <v>0.0234592284662732</v>
       </c>
       <c r="C11" t="n">
         <v>0.02100020353675035</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002458991560200456</v>
+        <v>-0.002459024929522848</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02303571683764115</v>
+        <v>0.02303574077557528</v>
       </c>
       <c r="C22" t="n">
         <v>0.02035367503561893</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.002682041802022216</v>
+        <v>-0.002682065739956347</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02039071893412565</v>
+        <v>0.02039063715328562</v>
       </c>
       <c r="C24" t="n">
         <v>0.02007830178513703</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0003124171489886189</v>
+        <v>-0.0003123353681485884</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02194708032130277</v>
+        <v>0.02194721195915586</v>
       </c>
       <c r="C26" t="n">
         <v>0.0199585742849275</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.001988506036375268</v>
+        <v>-0.001988637674228355</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02340107664105164</v>
+        <v>0.02340109080627021</v>
       </c>
       <c r="C27" t="n">
         <v>0.0199106832848437</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003490393356207946</v>
+        <v>-0.003490407521426517</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02164233039558033</v>
+        <v>0.02164249289384682</v>
       </c>
       <c r="C31" t="n">
         <v>0.01980292853465512</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.001839401860925211</v>
+        <v>-0.001839564359191699</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02335992176794279</v>
+        <v>0.0233598014659161</v>
       </c>
       <c r="C36" t="n">
         <v>0.01932401853381703</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.004035903234125761</v>
+        <v>-0.00403578293209907</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02315878901676634</v>
+        <v>0.02315882355115526</v>
       </c>
       <c r="C39" t="n">
         <v>0.01916837278354465</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.003990416233221692</v>
+        <v>-0.00399045076761061</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02249165158625452</v>
+        <v>0.02249140622157915</v>
       </c>
       <c r="C42" t="n">
         <v>0.01892891778312561</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.003562733803128913</v>
+        <v>-0.003562488438453543</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02038997061803354</v>
+        <v>0.02038998309301845</v>
       </c>
       <c r="C46" t="n">
         <v>0.01861762628258085</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.001772344335452695</v>
+        <v>-0.001772356810437602</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01577845803223656</v>
+        <v>0.0157783528522925</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01577845803223656</v>
+        <v>-0.0157783528522925</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01834303472313472</v>
+        <v>0.01834307170237843</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01834303472313472</v>
+        <v>-0.01834307170237843</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01672808547121149</v>
+        <v>0.01672800504476155</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01672808547121149</v>
+        <v>-0.01672800504476155</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01826775190218819</v>
+        <v>0.01826770086288241</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01826775190218819</v>
+        <v>-0.01826770086288241</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01895729527335929</v>
+        <v>0.01895740738339606</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01895729527335929</v>
+        <v>-0.01895740738339606</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01804167920239148</v>
+        <v>0.01804172512489691</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01804167920239148</v>
+        <v>-0.01804172512489691</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02031584599815461</v>
+        <v>0.02031588536841557</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02031584599815461</v>
+        <v>-0.02031588536841557</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01892291301401957</v>
+        <v>0.01892296951126419</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01892291301401957</v>
+        <v>-0.01892296951126419</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01863339117555362</v>
+        <v>0.0186333254991352</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01863339117555362</v>
+        <v>-0.0186333254991352</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01850404199830968</v>
+        <v>0.01850398079932856</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01850404199830968</v>
+        <v>-0.01850398079932856</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02086580245231257</v>
+        <v>0.02086553094932579</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02086580245231257</v>
+        <v>-0.02086553094932579</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01929698575734713</v>
+        <v>0.01929711803803807</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01929698575734713</v>
+        <v>-0.01929711803803807</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02006764340747885</v>
+        <v>0.02006776511009492</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02006764340747885</v>
+        <v>-0.02006776511009492</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02166709081826464</v>
+        <v>0.02166717561279465</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02166709081826464</v>
+        <v>-0.02166717561279465</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01733268558592435</v>
+        <v>0.01733269043621139</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01733268558592435</v>
+        <v>-0.01733269043621139</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01800937589769773</v>
+        <v>0.01800930330977061</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01800937589769773</v>
+        <v>-0.01800930330977061</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01749692349821503</v>
+        <v>0.01749694436199539</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01749692349821503</v>
+        <v>-0.01749694436199539</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01998068285245981</v>
+        <v>0.01998063863985279</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01998068285245981</v>
+        <v>-0.01998063863985279</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01779218739214923</v>
+        <v>0.01779212160962644</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01779218739214923</v>
+        <v>-0.01779212160962644</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02048018626479389</v>
+        <v>0.02048021722524214</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02048018626479389</v>
+        <v>-0.02048021722524214</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02062415746396162</v>
+        <v>0.02062424367016714</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02062415746396162</v>
+        <v>-0.02062424367016714</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01869724544047139</v>
+        <v>0.01869731059007152</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01869724544047139</v>
+        <v>-0.01869731059007152</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01767740831935828</v>
+        <v>0.01767746804313637</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01767740831935828</v>
+        <v>-0.01767746804313637</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01881019937834464</v>
+        <v>0.01881015526121126</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01881019937834464</v>
+        <v>-0.01881015526121126</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01988341091645993</v>
+        <v>0.01988336856713015</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01988341091645993</v>
+        <v>-0.01988336856713015</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01786988532935445</v>
+        <v>0.0178698997274954</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01786988532935445</v>
+        <v>-0.0178698997274954</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0185637351764997</v>
+        <v>0.01856400565995217</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0185637351764997</v>
+        <v>-0.01856400565995217</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01982615119353107</v>
+        <v>0.01982608078872203</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01982615119353107</v>
+        <v>-0.01982608078872203</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01721721819576435</v>
+        <v>0.01721727834439286</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01721721819576435</v>
+        <v>-0.01721727834439286</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02037361758732313</v>
+        <v>0.02037351044380362</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02037361758732313</v>
+        <v>-0.02037351044380362</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01915286674748186</v>
+        <v>0.01915289135040305</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01915286674748186</v>
+        <v>-0.01915289135040305</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0181955272573202</v>
+        <v>0.01819552117928124</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.0181955272573202</v>
+        <v>-0.01819552117928124</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01957552813647621</v>
+        <v>0.0195754605631601</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01957552813647621</v>
+        <v>-0.0195754605631601</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01992058775795927</v>
+        <v>0.01992053648743142</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01992058775795927</v>
+        <v>-0.01992053648743142</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02019285658075464</v>
+        <v>0.0201928261086871</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02019285658075464</v>
+        <v>-0.0201928261086871</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01785778180802552</v>
+        <v>0.01785791362850948</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01785778180802552</v>
+        <v>-0.01785791362850948</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01883334576568311</v>
+        <v>0.01883345550440993</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01883334576568311</v>
+        <v>-0.01883345550440993</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01956527610961337</v>
+        <v>0.01956537272261433</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01956527610961337</v>
+        <v>-0.01956537272261433</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20240131.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240131.xlsx
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03181280626286835</v>
+        <v>0.03182368756508491</v>
       </c>
       <c r="C3" t="n">
         <v>0.02164673203788178</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01016607422498657</v>
+        <v>-0.01017695552720313</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02659154926877294</v>
+        <v>0.0266004679886068</v>
       </c>
       <c r="C9" t="n">
         <v>0.02117979478706464</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005411754481708303</v>
+        <v>-0.005420673201542162</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0234592284662732</v>
+        <v>0.02346701419453602</v>
       </c>
       <c r="C11" t="n">
         <v>0.02100020353675035</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002459024929522848</v>
+        <v>-0.002466810657785663</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02303574077557528</v>
+        <v>0.02304339478725341</v>
       </c>
       <c r="C22" t="n">
         <v>0.02035367503561893</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.002682065739956347</v>
+        <v>-0.00268971975163448</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02039063715328562</v>
+        <v>0.02039751528926569</v>
       </c>
       <c r="C24" t="n">
         <v>0.02007830178513703</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0003123353681485884</v>
+        <v>-0.0003192135041286646</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02194721195915586</v>
+        <v>0.02195439542150266</v>
       </c>
       <c r="C26" t="n">
         <v>0.0199585742849275</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.001988637674228355</v>
+        <v>-0.001995821136575152</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02340109080627021</v>
+        <v>0.02340887636738919</v>
       </c>
       <c r="C27" t="n">
         <v>0.0199106832848437</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003490407521426517</v>
+        <v>-0.003498193082545498</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02164249289384682</v>
+        <v>0.02164954392070919</v>
       </c>
       <c r="C31" t="n">
         <v>0.01980292853465512</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.001839564359191699</v>
+        <v>-0.001846615386054063</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0233598014659161</v>
+        <v>0.02336770777710174</v>
       </c>
       <c r="C36" t="n">
         <v>0.01932401853381703</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.00403578293209907</v>
+        <v>-0.004043689243284704</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02315882355115526</v>
+        <v>0.02316650798711162</v>
       </c>
       <c r="C39" t="n">
         <v>0.01916837278354465</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.00399045076761061</v>
+        <v>-0.003998135203566972</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02249140622157915</v>
+        <v>0.02249914819548935</v>
       </c>
       <c r="C42" t="n">
         <v>0.01892891778312561</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.003562488438453543</v>
+        <v>-0.003570230412363741</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02038998309301845</v>
+        <v>0.02039676672375512</v>
       </c>
       <c r="C46" t="n">
         <v>0.01861762628258085</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.001772356810437602</v>
+        <v>-0.001779140441174273</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0157783528522925</v>
+        <v>0.01578371709174769</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0157783528522925</v>
+        <v>-0.01578371709174769</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01834307170237843</v>
+        <v>0.01834914857222103</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01834307170237843</v>
+        <v>-0.01834914857222103</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01672800504476155</v>
+        <v>0.01673366104753338</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01672800504476155</v>
+        <v>-0.01673366104753338</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01826770086288241</v>
+        <v>0.01827384065903578</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01826770086288241</v>
+        <v>-0.01827384065903578</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01895740738339606</v>
+        <v>0.01896361385935858</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01895740738339606</v>
+        <v>-0.01896361385935858</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01804172512489691</v>
+        <v>0.01804769260778333</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01804172512489691</v>
+        <v>-0.01804769260778333</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02031588536841557</v>
+        <v>0.02032261739767319</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02031588536841557</v>
+        <v>-0.02032261739767319</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01892296951126419</v>
+        <v>0.0189292201401951</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01892296951126419</v>
+        <v>-0.0189292201401951</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0186333254991352</v>
+        <v>0.0186396018022756</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0186333254991352</v>
+        <v>-0.0186396018022756</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01850398079932856</v>
+        <v>0.01851020951213561</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01850398079932856</v>
+        <v>-0.01851020951213561</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02086553094932579</v>
+        <v>0.0208727571557836</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02086553094932579</v>
+        <v>-0.0208727571557836</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01929711803803807</v>
+        <v>0.01930341756432574</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01929711803803807</v>
+        <v>-0.01930341756432574</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02006776511009492</v>
+        <v>0.02007433207950958</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02006776511009492</v>
+        <v>-0.02007433207950958</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02166717561279465</v>
+        <v>0.02167431259619843</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02166717561279465</v>
+        <v>-0.02167431259619843</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01733269043621139</v>
+        <v>0.01733846267927517</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01733269043621139</v>
+        <v>-0.01733846267927517</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01800930330977061</v>
+        <v>0.01801537853619453</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01800930330977061</v>
+        <v>-0.01801537853619453</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01749694436199539</v>
+        <v>0.01750275533309718</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01749694436199539</v>
+        <v>-0.01750275533309718</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01998063863985279</v>
+        <v>0.01998734253998945</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01998063863985279</v>
+        <v>-0.01998734253998945</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01779212160962644</v>
+        <v>0.01779811764034822</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01779212160962644</v>
+        <v>-0.01779811764034822</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02048021722524214</v>
+        <v>0.02048701243995914</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02048021722524214</v>
+        <v>-0.02048701243995914</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02062424367016714</v>
+        <v>0.02063103162563498</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02062424367016714</v>
+        <v>-0.02063103162563498</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01869731059007152</v>
+        <v>0.01870347735022232</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01869731059007152</v>
+        <v>-0.01870347735022232</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01767746804313637</v>
+        <v>0.01768330031096889</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01767746804313637</v>
+        <v>-0.01768330031096889</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01881015526121126</v>
+        <v>0.018816468936355</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01881015526121126</v>
+        <v>-0.018816468936355</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01988336856713015</v>
+        <v>0.01989003818264021</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01988336856713015</v>
+        <v>-0.01989003818264021</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0178698997274954</v>
+        <v>0.01787584147476563</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0178698997274954</v>
+        <v>-0.01787584147476563</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01856400565995217</v>
+        <v>0.01823661628360465</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01856400565995217</v>
+        <v>-0.01823661628360465</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01982608078872203</v>
+        <v>0.0198327593746848</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01982608078872203</v>
+        <v>-0.0198327593746848</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01721727834439286</v>
+        <v>0.01722295680310625</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01721727834439286</v>
+        <v>-0.01722295680310625</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02037351044380362</v>
+        <v>0.0203804082424765</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02037351044380362</v>
+        <v>-0.0203804082424765</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01915289135040305</v>
+        <v>0.01915925051868613</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01915289135040305</v>
+        <v>-0.01915925051868613</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01819552117928124</v>
+        <v>0.01820159194123844</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01819552117928124</v>
+        <v>-0.01820159194123844</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0195754605631601</v>
+        <v>0.01958205278338539</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.0195754605631601</v>
+        <v>-0.01958205278338539</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01992053648743142</v>
+        <v>0.01992722741541515</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01992053648743142</v>
+        <v>-0.01992722741541515</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0201928261086871</v>
+        <v>0.02019958698712521</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.0201928261086871</v>
+        <v>-0.02019958698712521</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01785791362850948</v>
+        <v>0.01786373391925676</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01785791362850948</v>
+        <v>-0.01786373391925676</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01883345550440993</v>
+        <v>0.01883962303853026</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01883345550440993</v>
+        <v>-0.01883962303853026</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01956537272261433</v>
+        <v>0.01957179733945738</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01956537272261433</v>
+        <v>-0.01957179733945738</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
